--- a/results/I3_N5_M2_T45_C150_DepLowerLeft_s3_P5_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepLowerLeft_s3_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>311.5204227287347</v>
+        <v>1582.403106595918</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01200008392333984</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.68042272873255</v>
+        <v>23.65265368177027</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>7.932600280313991</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>6.683053194461346</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>208.5500000000022</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.28999999999999</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -802,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -852,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>42.53018219295431</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>38.90813890885143</v>
+        <v>38.9259431076176</v>
       </c>
     </row>
     <row r="5">
@@ -876,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>34.13769259370486</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>36.56872016525512</v>
       </c>
     </row>
     <row r="8">
@@ -892,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>44.34969199597647</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -900,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>40.70957968950923</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,6 +997,216 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>65.71999999999964</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>59.43999999999964</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>69.37499999999963</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>64.17999999999964</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>63.18499999999963</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>171.3550000000004</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>173.8850000000004</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>159.1050000000004</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>175.9150000000004</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>173.45</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.68999999999986</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.57999999999984</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.61499999999985</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71999999999986</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.40999999999984</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>133.0399999999999</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>135.6449999999999</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>150.565</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>134.7699999999999</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>137.7699999999999</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>85.66500000000059</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>77.02500000000057</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>77.97500000000058</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>86.04000000000059</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>86.91000000000057</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>171.3550000000004</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>173.8850000000004</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>159.1050000000004</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>175.9150000000004</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>173.45</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>133.0399999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>135.6449999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>150.565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>134.7699999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>137.7699999999999</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>21.35500000000036</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3">
@@ -1475,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>23.88500000000036</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4">
@@ -1486,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>9.105</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5">
@@ -1497,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>25.91500000000036</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6">
@@ -1508,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>23.45</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7">
@@ -1541,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5649999999999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1720,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1731,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1742,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1753,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1888,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +2180,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1926,7 +2191,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -1937,7 +2202,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -1948,7 +2213,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -1959,7 +2224,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -1970,12 +2235,111 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
